--- a/Task/Вариант 4/Ресурсы/Жюри_import/жюри.xlsx
+++ b/Task/Вариант 4/Ресурсы/Жюри_import/жюри.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dfca17eb6a1f379e/Рабочий стол/жюри/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Демоэкзамен\Conference\Task\Вариант 4\Ресурсы\Жюри_import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{86F3C49F-B20D-479F-8869-32F2C06BFF6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{07094E87-AE1A-4AA6-AD2B-FF163430DA22}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43158287-4497-41F7-AD1A-A377E14F2236}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1812" yWindow="1812" windowWidth="17280" windowHeight="9420" xr2:uid="{1263D430-3F9C-4244-904D-1EFC962333A9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1263D430-3F9C-4244-904D-1EFC962333A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -31,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="71">
-  <si>
-    <t>ФИО</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="94">
   <si>
     <t>пол</t>
   </si>
@@ -60,12 +57,6 @@
     <t>фото</t>
   </si>
   <si>
-    <t>мужской</t>
-  </si>
-  <si>
-    <t>женский</t>
-  </si>
-  <si>
     <t>nathanial10@hotmail.com</t>
   </si>
   <si>
@@ -96,36 +87,6 @@
     <t>jonathan.lynch@gmail.com</t>
   </si>
   <si>
-    <t>Богданов Артем Федосеевич</t>
-  </si>
-  <si>
-    <t>Щукин Вольдемар Тихонович</t>
-  </si>
-  <si>
-    <t>Селиверстов Тимофей Дамирович</t>
-  </si>
-  <si>
-    <t>Дьячков Олег Донатович</t>
-  </si>
-  <si>
-    <t>Гущин Авраам Юрьевич</t>
-  </si>
-  <si>
-    <t>Аксёнов Юлиан Васильевич</t>
-  </si>
-  <si>
-    <t>Сорокина Милиса Станиславовна</t>
-  </si>
-  <si>
-    <t>Князева Гражина Иринеевна</t>
-  </si>
-  <si>
-    <t>Юдина Нега Аркадьевна</t>
-  </si>
-  <si>
-    <t>Зайцева Альвина Константиновна</t>
-  </si>
-  <si>
     <t>02.15.1978</t>
   </si>
   <si>
@@ -244,6 +205,114 @@
   </si>
   <si>
     <t>foto12.jpg</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Богданов</t>
+  </si>
+  <si>
+    <t>Артем</t>
+  </si>
+  <si>
+    <t>Федосеевич</t>
+  </si>
+  <si>
+    <t>Щукин</t>
+  </si>
+  <si>
+    <t>Вольдемар</t>
+  </si>
+  <si>
+    <t>Тихонович</t>
+  </si>
+  <si>
+    <t>Селиверстов</t>
+  </si>
+  <si>
+    <t>Тимофей</t>
+  </si>
+  <si>
+    <t>Дамирович</t>
+  </si>
+  <si>
+    <t>Дьячков</t>
+  </si>
+  <si>
+    <t>Олег</t>
+  </si>
+  <si>
+    <t>Донатович</t>
+  </si>
+  <si>
+    <t>Гущин</t>
+  </si>
+  <si>
+    <t>Авраам</t>
+  </si>
+  <si>
+    <t>Юрьевич</t>
+  </si>
+  <si>
+    <t>Аксёнов</t>
+  </si>
+  <si>
+    <t>Юлиан</t>
+  </si>
+  <si>
+    <t>Васильевич</t>
+  </si>
+  <si>
+    <t>Сорокина</t>
+  </si>
+  <si>
+    <t>Милиса</t>
+  </si>
+  <si>
+    <t>Станиславовна</t>
+  </si>
+  <si>
+    <t>Князева</t>
+  </si>
+  <si>
+    <t>Гражина</t>
+  </si>
+  <si>
+    <t>Иринеевна</t>
+  </si>
+  <si>
+    <t>Юдина</t>
+  </si>
+  <si>
+    <t>Нега</t>
+  </si>
+  <si>
+    <t>Аркадьевна</t>
+  </si>
+  <si>
+    <t>Зайцева</t>
+  </si>
+  <si>
+    <t>Альвина</t>
+  </si>
+  <si>
+    <t>Константиновна</t>
+  </si>
+  <si>
+    <t>Фамилия</t>
+  </si>
+  <si>
+    <t>Имя</t>
+  </si>
+  <si>
+    <t>Отчество</t>
+  </si>
+  <si>
+    <t>М</t>
+  </si>
+  <si>
+    <t>Ж</t>
   </si>
 </sst>
 </file>
@@ -642,348 +711,448 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9D6CC27-D25C-428D-A08B-711464B5A878}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="30.85546875" customWidth="1"/>
+    <col min="6" max="6" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="G2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="7">
+        <v>25993</v>
+      </c>
+      <c r="H3">
+        <v>45</v>
+      </c>
+      <c r="I3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4">
+        <v>56</v>
+      </c>
+      <c r="I4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="7">
+        <v>33827</v>
+      </c>
+      <c r="H5">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6">
+        <v>94</v>
+      </c>
+      <c r="I6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="7">
+        <v>32325</v>
+      </c>
+      <c r="H7">
+        <v>81</v>
+      </c>
+      <c r="I7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B2" t="s">
+      <c r="H8">
+        <v>93</v>
+      </c>
+      <c r="I8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="7">
+        <v>23536</v>
+      </c>
+      <c r="H9">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="B10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10">
+        <v>91</v>
+      </c>
+      <c r="I10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" t="s">
         <v>31</v>
       </c>
-      <c r="E2">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="L10" t="s">
         <v>56</v>
       </c>
-      <c r="H2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="7">
-        <v>25993</v>
-      </c>
-      <c r="E3">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="7">
+        <v>20305</v>
+      </c>
+      <c r="H11">
+        <v>34</v>
+      </c>
+      <c r="I11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" t="s">
         <v>45</v>
       </c>
-      <c r="F3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="K11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" t="s">
         <v>57</v>
       </c>
-      <c r="H3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4">
-        <v>56</v>
-      </c>
-      <c r="F4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="7">
-        <v>33827</v>
-      </c>
-      <c r="E5">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6">
-        <v>94</v>
-      </c>
-      <c r="F6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="7">
-        <v>32325</v>
-      </c>
-      <c r="E7">
-        <v>81</v>
-      </c>
-      <c r="F7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8">
-        <v>93</v>
-      </c>
-      <c r="F8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" t="s">
-        <v>58</v>
-      </c>
-      <c r="H8" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="7">
-        <v>23536</v>
-      </c>
-      <c r="E9">
-        <v>28</v>
-      </c>
-      <c r="F9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" t="s">
-        <v>59</v>
-      </c>
-      <c r="H9" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10">
-        <v>91</v>
-      </c>
-      <c r="F10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" t="s">
-        <v>44</v>
-      </c>
-      <c r="I10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="7">
-        <v>20305</v>
-      </c>
-      <c r="E11">
-        <v>34</v>
-      </c>
-      <c r="F11" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H11" t="s">
-        <v>45</v>
-      </c>
-      <c r="I11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D14" s="5"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G14" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
